--- a/results/ugrad-009-01/ugrad-009-01-vocab-20.xlsx
+++ b/results/ugrad-009-01/ugrad-009-01-vocab-20.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Documents\GitHub\P4P\results\ugrad-009-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF94BC8F-D132-4DB1-8A42-257370583D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D77920E-7677-4922-A76C-B6D871707772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F48A5798-9A68-4F4D-B87E-F0C693719812}"/>
   </bookViews>
   <sheets>
     <sheet name="ugrad-009-01-vocab-20" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,27 +37,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>Codebase</t>
-  </si>
-  <si>
-    <t># Design</t>
-  </si>
-  <si>
-    <t># Context</t>
-  </si>
-  <si>
-    <t># Neither</t>
   </si>
   <si>
     <t>Term contributions per codebase</t>
   </si>
   <si>
     <t>Vocabularly size</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Neither</t>
   </si>
 </sst>
 </file>
@@ -200,7 +198,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v># Design</c:v>
+                  <c:v>Design</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -298,64 +296,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>113</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>116</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>127</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>135</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>135</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>138</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>151</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>151</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>153</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,7 +374,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v># Context</c:v>
+                  <c:v>Context</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -471,67 +469,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,7 +550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v># Neither</c:v>
+                  <c:v>Neither</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -650,64 +648,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>71</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>118</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>121</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,9 +745,6 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Codebase</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -1297,64 +1292,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>113</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>116</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>127</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>135</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>135</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>138</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>151</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>151</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>153</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,67 +1705,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2124,64 +2119,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>71</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>118</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>121</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5036,44 +5031,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82DC445-0F37-446D-A622-AB7BC737F4A9}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5081,12 +5070,15 @@
         <v>0</v>
       </c>
       <c r="B3">
+        <f>raw!B2</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <f>raw!C2</f>
+        <v>39</v>
       </c>
       <c r="D3">
+        <f>raw!D2</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -5098,7 +5090,7 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:I3" si="0">C3</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -5110,28 +5102,31 @@
         <v>1000</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <f>raw!B3</f>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <f>raw!C3</f>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <f>raw!D3</f>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>1000</v>
       </c>
       <c r="G4">
         <f>G3+B4</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <f>H3+C4</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4">
         <f>I3+D4</f>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5139,12 +5134,15 @@
         <v>1001</v>
       </c>
       <c r="B5">
+        <f>raw!B4</f>
         <v>15</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <f>raw!C4</f>
+        <v>4</v>
       </c>
       <c r="D5">
+        <f>raw!D4</f>
         <v>3</v>
       </c>
       <c r="F5">
@@ -5152,15 +5150,15 @@
       </c>
       <c r="G5">
         <f>G4+B5</f>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H23" si="1">H4+C5</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I23" si="2">I4+D5</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5168,28 +5166,31 @@
         <v>1002</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <f>raw!B5</f>
+        <v>13</v>
       </c>
       <c r="C6">
+        <f>raw!C5</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <f>raw!D5</f>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>1002</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G23" si="3">G5+B6</f>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5197,12 +5198,15 @@
         <v>1003</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <f>raw!B6</f>
+        <v>19</v>
       </c>
       <c r="C7">
+        <f>raw!C6</f>
         <v>1</v>
       </c>
       <c r="D7">
+        <f>raw!D6</f>
         <v>10</v>
       </c>
       <c r="F7">
@@ -5210,15 +5214,15 @@
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5226,12 +5230,15 @@
         <v>1004</v>
       </c>
       <c r="B8">
+        <f>raw!B7</f>
         <v>9</v>
       </c>
       <c r="C8">
+        <f>raw!C7</f>
         <v>0</v>
       </c>
       <c r="D8">
+        <f>raw!D7</f>
         <v>9</v>
       </c>
       <c r="F8">
@@ -5239,15 +5246,15 @@
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5255,28 +5262,31 @@
         <v>1005</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <f>raw!B8</f>
+        <v>10</v>
       </c>
       <c r="C9">
+        <f>raw!C8</f>
         <v>1</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <f>raw!D8</f>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>1005</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5284,12 +5294,15 @@
         <v>1006</v>
       </c>
       <c r="B10">
+        <f>raw!B9</f>
         <v>5</v>
       </c>
       <c r="C10">
+        <f>raw!C9</f>
         <v>0</v>
       </c>
       <c r="D10">
+        <f>raw!D9</f>
         <v>3</v>
       </c>
       <c r="F10">
@@ -5297,15 +5310,15 @@
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5313,12 +5326,15 @@
         <v>1007</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <f>raw!B10</f>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <f>raw!C10</f>
+        <v>1</v>
       </c>
       <c r="D11">
+        <f>raw!D10</f>
         <v>5</v>
       </c>
       <c r="F11">
@@ -5326,15 +5342,15 @@
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5342,28 +5358,31 @@
         <v>1008</v>
       </c>
       <c r="B12">
+        <f>raw!B11</f>
         <v>3</v>
       </c>
       <c r="C12">
+        <f>raw!C11</f>
         <v>1</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <f>raw!D11</f>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>1008</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5371,12 +5390,15 @@
         <v>1009</v>
       </c>
       <c r="B13">
+        <f>raw!B12</f>
         <v>0</v>
       </c>
       <c r="C13">
+        <f>raw!C12</f>
         <v>0</v>
       </c>
       <c r="D13">
+        <f>raw!D12</f>
         <v>3</v>
       </c>
       <c r="F13">
@@ -5384,15 +5406,15 @@
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5400,28 +5422,31 @@
         <v>1010</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <f>raw!B13</f>
+        <v>5</v>
       </c>
       <c r="C14">
+        <f>raw!C13</f>
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <f>raw!D13</f>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1010</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5429,28 +5454,31 @@
         <v>1011</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <f>raw!B14</f>
+        <v>8</v>
       </c>
       <c r="C15">
+        <f>raw!C14</f>
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <f>raw!D14</f>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>1011</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5458,28 +5486,31 @@
         <v>1012</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <f>raw!B15</f>
+        <v>4</v>
       </c>
       <c r="C16">
+        <f>raw!C15</f>
         <v>1</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <f>raw!D15</f>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>1012</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5487,28 +5518,31 @@
         <v>1013</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <f>raw!B16</f>
+        <v>3</v>
       </c>
       <c r="C17">
+        <f>raw!C16</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <f>raw!D16</f>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>1013</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5516,12 +5550,15 @@
         <v>1014</v>
       </c>
       <c r="B18">
+        <f>raw!B17</f>
         <v>0</v>
       </c>
       <c r="C18">
+        <f>raw!C17</f>
         <v>0</v>
       </c>
       <c r="D18">
+        <f>raw!D17</f>
         <v>6</v>
       </c>
       <c r="F18">
@@ -5529,15 +5566,15 @@
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -5545,28 +5582,31 @@
         <v>1015</v>
       </c>
       <c r="B19">
+        <f>raw!B18</f>
         <v>3</v>
       </c>
       <c r="C19">
+        <f>raw!C18</f>
         <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <f>raw!D18</f>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1015</v>
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5574,12 +5614,15 @@
         <v>1016</v>
       </c>
       <c r="B20">
+        <f>raw!B19</f>
         <v>8</v>
       </c>
       <c r="C20">
+        <f>raw!C19</f>
         <v>0</v>
       </c>
       <c r="D20">
+        <f>raw!D19</f>
         <v>3</v>
       </c>
       <c r="F20">
@@ -5587,15 +5630,15 @@
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -5603,12 +5646,15 @@
         <v>1017</v>
       </c>
       <c r="B21">
+        <f>raw!B20</f>
         <v>5</v>
       </c>
       <c r="C21">
+        <f>raw!C20</f>
         <v>0</v>
       </c>
       <c r="D21">
+        <f>raw!D20</f>
         <v>3</v>
       </c>
       <c r="F21">
@@ -5616,15 +5662,15 @@
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -5632,12 +5678,15 @@
         <v>1018</v>
       </c>
       <c r="B22">
+        <f>raw!B21</f>
         <v>0</v>
       </c>
       <c r="C22">
+        <f>raw!C21</f>
         <v>0</v>
       </c>
       <c r="D22">
+        <f>raw!D21</f>
         <v>1</v>
       </c>
       <c r="F22">
@@ -5645,15 +5694,15 @@
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5661,12 +5710,15 @@
         <v>1019</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <f>raw!B22</f>
+        <v>3</v>
       </c>
       <c r="C23">
+        <f>raw!C22</f>
         <v>0</v>
       </c>
       <c r="D23">
+        <f>raw!D22</f>
         <v>3</v>
       </c>
       <c r="F23">
@@ -5674,19 +5726,339 @@
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E0C157-F9BF-4E5B-A200-66CFD408D167}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1007</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1008</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1009</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1010</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1011</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1012</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1013</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1014</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1015</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1016</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1017</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1018</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1019</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/ugrad-009-01/ugrad-009-01-vocab-20.xlsx
+++ b/results/ugrad-009-01/ugrad-009-01-vocab-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Documents\GitHub\P4P\results\ugrad-009-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D77920E-7677-4922-A76C-B6D871707772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0734D936-8FB1-49CC-B735-BEC1E5D27212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F48A5798-9A68-4F4D-B87E-F0C693719812}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F48A5798-9A68-4F4D-B87E-F0C693719812}"/>
   </bookViews>
   <sheets>
     <sheet name="ugrad-009-01-vocab-20" sheetId="1" r:id="rId1"/>
@@ -299,16 +299,16 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>113</c:v>
@@ -317,43 +317,43 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>119</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>122</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>122</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>127</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>135</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>142</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>142</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>145</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>153</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>158</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>158</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>161</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,10 +469,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>46</c:v>
@@ -663,25 +663,25 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>83</c:v>
@@ -696,16 +696,16 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>101</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>102</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,16 +1295,16 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>113</c:v>
@@ -1313,43 +1313,43 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>119</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>122</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>122</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>127</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>135</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>142</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>142</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>145</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>153</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>158</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>158</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>161</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,10 +1705,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>46</c:v>
@@ -2134,25 +2134,25 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>83</c:v>
@@ -2167,16 +2167,16 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>101</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>102</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5031,7 +5031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82DC445-0F37-446D-A622-AB7BC737F4A9}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="C3">
         <f>raw!C2</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <f>raw!D2</f>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:I3" si="0">C3</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="H4">
         <f>H3+C4</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4">
         <f>I3+D4</f>
@@ -5135,11 +5135,11 @@
       </c>
       <c r="B5">
         <f>raw!B4</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <f>raw!C4</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <f>raw!D4</f>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G5">
         <f>G4+B5</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H23" si="1">H4+C5</f>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B6">
         <f>raw!B5</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <f>raw!C5</f>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G23" si="3">G5+B6</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="B7">
         <f>raw!B6</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <f>raw!C6</f>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="B9">
         <f>raw!B8</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <f>raw!C8</f>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="D9">
         <f>raw!D8</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>1005</v>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="B11">
         <f>raw!B10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <f>raw!C10</f>
@@ -5335,14 +5335,14 @@
       </c>
       <c r="D11">
         <f>raw!D10</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>1007</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5367,14 +5367,14 @@
       </c>
       <c r="D12">
         <f>raw!D11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>1008</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5399,14 +5399,14 @@
       </c>
       <c r="D13">
         <f>raw!D12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1009</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5431,14 +5431,14 @@
       </c>
       <c r="D14">
         <f>raw!D13</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>1010</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="B16">
         <f>raw!B15</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <f>raw!C15</f>
@@ -5495,14 +5495,14 @@
       </c>
       <c r="D16">
         <f>raw!D15</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>1012</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
@@ -5534,7 +5534,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
@@ -5623,14 +5623,14 @@
       </c>
       <c r="D20">
         <f>raw!D19</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>1016</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B23">
         <f>raw!B22</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <f>raw!C22</f>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5747,8 +5747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E0C157-F9BF-4E5B-A200-66CFD408D167}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5797,10 +5797,10 @@
         <v>1001</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -5811,7 +5811,7 @@
         <v>1002</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>1003</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5853,13 +5853,13 @@
         <v>1005</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5881,13 +5881,13 @@
         <v>1007</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5901,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5951,13 +5951,13 @@
         <v>1012</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6049,7 +6049,7 @@
         <v>1019</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0</v>

--- a/results/ugrad-009-01/ugrad-009-01-vocab-20.xlsx
+++ b/results/ugrad-009-01/ugrad-009-01-vocab-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Documents\GitHub\P4P\results\ugrad-009-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0734D936-8FB1-49CC-B735-BEC1E5D27212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ED7965-3A10-4D03-8AE0-22205490E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F48A5798-9A68-4F4D-B87E-F0C693719812}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F48A5798-9A68-4F4D-B87E-F0C693719812}"/>
   </bookViews>
   <sheets>
     <sheet name="ugrad-009-01-vocab-20" sheetId="1" r:id="rId1"/>
@@ -144,13 +144,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>Vocabulary</a:t>
+              <a:t>Growth in Vocabulary Size</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> Size over Codebases</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-NZ"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1151,13 +1146,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>Design Vocabulary</a:t>
+              <a:t>Growth in Design Vocabulary Size</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> over Codebases</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-NZ"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1567,11 +1557,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>Context</a:t>
+              <a:t>Growth in</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> Vocabularly over Codebases</a:t>
+              <a:t> Context Vocabulary Size</a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ"/>
           </a:p>
@@ -1983,7 +1973,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>Neither Vocabulary Over Codebases</a:t>
+              <a:t>Growth in Neither Vocabulary Size</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5031,8 +5021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82DC445-0F37-446D-A622-AB7BC737F4A9}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5747,7 +5737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E0C157-F9BF-4E5B-A200-66CFD408D167}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
